--- a/excel/stay_202308.xlsx
+++ b/excel/stay_202308.xlsx
@@ -710,7 +710,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1880</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,880</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,880</t>
         </is>
       </c>
     </row>
